--- a/Examples/test/plus_model.xlsx
+++ b/Examples/test/plus_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321BCBEE-4779-4290-80DD-5A0C9416878F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAB3CFC-CD95-45B4-820D-1A070D76AB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="801" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="801" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="21" r:id="rId1"/>
@@ -3616,6 +3616,7 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3634,10 +3635,31 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3646,31 +3668,22 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3688,9 +3701,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3698,15 +3708,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3727,7 +3728,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17719,7 +17719,7 @@
       </c>
     </row>
     <row r="9" spans="1:681">
-      <c r="E9" s="91"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -18398,7 +18398,7 @@
       <c r="ZE9" s="44"/>
     </row>
     <row r="10" spans="1:681" ht="15" customHeight="1">
-      <c r="E10" s="92"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
@@ -19077,7 +19077,7 @@
       <c r="ZE10" s="44"/>
     </row>
     <row r="11" spans="1:681">
-      <c r="E11" s="93"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
@@ -38497,7 +38497,7 @@
       </c>
     </row>
     <row r="9" spans="1:681">
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="95" t="s">
         <v>140</v>
       </c>
       <c r="F9" s="44"/>
@@ -40524,7 +40524,7 @@
       </c>
     </row>
     <row r="10" spans="1:681" ht="15" customHeight="1">
-      <c r="E10" s="95"/>
+      <c r="E10" s="96"/>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
@@ -42549,7 +42549,7 @@
       </c>
     </row>
     <row r="11" spans="1:681">
-      <c r="E11" s="96"/>
+      <c r="E11" s="97"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
@@ -48514,114 +48514,114 @@
     </row>
     <row r="9" spans="1:24">
       <c r="E9" s="44"/>
-      <c r="F9" s="103" t="s">
+      <c r="F9" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
-      <c r="P9" s="104"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="104"/>
-      <c r="W9" s="104"/>
-      <c r="X9" s="119"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
+      <c r="S9" s="99"/>
+      <c r="T9" s="99"/>
+      <c r="U9" s="99"/>
+      <c r="V9" s="99"/>
+      <c r="W9" s="99"/>
+      <c r="X9" s="100"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1">
       <c r="E10" s="44"/>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="120" t="s">
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="103" t="s">
         <v>135</v>
       </c>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="105" t="s">
+      <c r="J10" s="103"/>
+      <c r="K10" s="103"/>
+      <c r="L10" s="101" t="s">
         <v>137</v>
       </c>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="94" t="s">
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="102"/>
+      <c r="Q10" s="102"/>
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="104"/>
+      <c r="U10" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="V10" s="97" t="s">
+      <c r="V10" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="W10" s="97"/>
-      <c r="X10" s="98"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="104"/>
     </row>
     <row r="11" spans="1:24">
       <c r="E11" s="44"/>
-      <c r="F11" s="106" t="s">
+      <c r="F11" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="99" t="s">
+      <c r="G11" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="H11" s="108" t="s">
+      <c r="H11" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="J11" s="110" t="s">
+      <c r="J11" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="112" t="s">
+      <c r="K11" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="L11" s="114" t="s">
+      <c r="L11" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="110" t="s">
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="P11" s="110"/>
-      <c r="Q11" s="110"/>
-      <c r="R11" s="112" t="s">
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="S11" s="112"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="117" t="s">
+      <c r="S11" s="117"/>
+      <c r="T11" s="120"/>
+      <c r="U11" s="96"/>
+      <c r="V11" s="121" t="s">
         <v>95</v>
       </c>
-      <c r="W11" s="99" t="s">
+      <c r="W11" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="X11" s="101" t="s">
+      <c r="X11" s="113" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="E12" s="44"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="113"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="118"/>
       <c r="L12" s="49" t="s">
         <v>95</v>
       </c>
@@ -48649,10 +48649,10 @@
       <c r="T12" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="U12" s="96"/>
-      <c r="V12" s="118"/>
-      <c r="W12" s="100"/>
-      <c r="X12" s="102"/>
+      <c r="U12" s="97"/>
+      <c r="V12" s="122"/>
+      <c r="W12" s="108"/>
+      <c r="X12" s="114"/>
     </row>
     <row r="13" spans="1:24">
       <c r="E13" s="44">
@@ -48961,15 +48961,15 @@
     </row>
     <row r="20" spans="5:22">
       <c r="E20" s="44"/>
-      <c r="F20" s="103" t="s">
+      <c r="F20" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="104"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="99"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
       <c r="M20" s="44"/>
       <c r="N20" s="44"/>
       <c r="O20" s="44"/>
@@ -48983,11 +48983,11 @@
     </row>
     <row r="21" spans="5:22">
       <c r="E21" s="44"/>
-      <c r="F21" s="105" t="s">
+      <c r="F21" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
       <c r="I21" s="44"/>
       <c r="J21" s="44"/>
       <c r="K21" s="44"/>
@@ -49005,13 +49005,13 @@
     </row>
     <row r="22" spans="5:22">
       <c r="E22" s="44"/>
-      <c r="F22" s="106" t="s">
+      <c r="F22" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="G22" s="99" t="s">
+      <c r="G22" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="108" t="s">
+      <c r="H22" s="109" t="s">
         <v>100</v>
       </c>
       <c r="I22" s="44"/>
@@ -49031,9 +49031,9 @@
     </row>
     <row r="23" spans="5:22">
       <c r="E23" s="44"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="109"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="110"/>
     </row>
     <row r="24" spans="5:22">
       <c r="E24" s="44">
@@ -49078,11 +49078,11 @@
       </c>
     </row>
     <row r="27" spans="5:22">
-      <c r="F27" s="97" t="s">
+      <c r="F27" s="102" t="s">
         <v>141</v>
       </c>
-      <c r="G27" s="97"/>
-      <c r="H27" s="98"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="104"/>
     </row>
     <row r="28" spans="5:22">
       <c r="E28" s="44">
@@ -49101,16 +49101,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="F9:X9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:T10"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
     <mergeCell ref="F27:H27"/>
     <mergeCell ref="W11:W12"/>
     <mergeCell ref="X11:X12"/>
@@ -49125,6 +49115,16 @@
     <mergeCell ref="O11:Q11"/>
     <mergeCell ref="R11:T11"/>
     <mergeCell ref="V11:V12"/>
+    <mergeCell ref="F9:X9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:T10"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -49577,7 +49577,7 @@
       <c r="E1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="123" t="s">
         <v>63</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -49606,7 +49606,7 @@
       <c r="E2" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="123"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="22">
         <f>Exergy!B2+Exergy!B3</f>
         <v>7327.4317000000001</v>
@@ -49636,7 +49636,7 @@
       <c r="E3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="123"/>
+      <c r="F3" s="124"/>
       <c r="G3" s="24">
         <f>Exergy!B4+Exergy!B22</f>
         <v>40598.299999999996</v>
@@ -49666,7 +49666,7 @@
       <c r="E4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="123"/>
+      <c r="F4" s="124"/>
       <c r="G4" s="24">
         <f>Exergy!B9+Exergy!B12</f>
         <v>41803.599999999999</v>
@@ -49696,7 +49696,7 @@
       <c r="E5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="123"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="24">
         <f>Exergy!B20</f>
         <v>336.62799999999999</v>
@@ -49726,7 +49726,7 @@
       <c r="E6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="123"/>
+      <c r="F6" s="124"/>
       <c r="G6" s="25">
         <f>Exergy!B25</f>
         <v>1688</v>
@@ -49756,7 +49756,7 @@
       <c r="E7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="123"/>
+      <c r="F7" s="124"/>
       <c r="G7" s="24">
         <f>Exergy!B8</f>
         <v>41608.6</v>
@@ -49786,7 +49786,7 @@
       <c r="E8" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="123"/>
+      <c r="F8" s="124"/>
       <c r="G8" s="25" t="e">
         <f>Exergy!#REF!</f>
         <v>#REF!</v>
@@ -49816,7 +49816,7 @@
       <c r="E9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="123"/>
+      <c r="F9" s="124"/>
       <c r="G9" s="24">
         <f>Exergy!B27</f>
         <v>808.58150000000001</v>
@@ -49846,7 +49846,7 @@
       <c r="E10" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="123"/>
+      <c r="F10" s="124"/>
       <c r="G10" s="25">
         <f>Exergy!B28</f>
         <v>568.33709999999996</v>
@@ -49876,7 +49876,7 @@
       <c r="E11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="123"/>
+      <c r="F11" s="124"/>
       <c r="G11" s="24">
         <f>Exergy!B6-Exergy!B7</f>
         <v>96.700000000004366</v>
@@ -49906,7 +49906,7 @@
       <c r="E12" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="123"/>
+      <c r="F12" s="124"/>
       <c r="G12" s="24">
         <f>Exergy!B14-Exergy!B15</f>
         <v>284.5</v>
@@ -49936,7 +49936,7 @@
       <c r="E13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="123"/>
+      <c r="F13" s="124"/>
       <c r="G13" s="24">
         <f>Exergy!B15-Exergy!B16</f>
         <v>580.40000000000146</v>
@@ -49966,7 +49966,7 @@
       <c r="E14" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="123"/>
+      <c r="F14" s="124"/>
       <c r="G14" s="24">
         <f>Exergy!B16-Exergy!B17</f>
         <v>55.099999999998545</v>
@@ -49996,7 +49996,7 @@
       <c r="E15" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="123"/>
+      <c r="F15" s="124"/>
       <c r="G15" s="26">
         <f>Exergy!B11</f>
         <v>21029.200000000001</v>
@@ -50026,7 +50026,7 @@
       <c r="E16" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="123"/>
+      <c r="F16" s="124"/>
       <c r="G16" s="24">
         <f>Exergy!B13</f>
         <v>41732.199999999997</v>
@@ -50056,7 +50056,7 @@
       <c r="E17" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="124"/>
+      <c r="F17" s="125"/>
       <c r="G17" s="79" t="e">
         <f>Exergy!B17-Exergy!#REF!</f>
         <v>#REF!</v>
@@ -50281,69 +50281,69 @@
     <row r="3" spans="1:47">
       <c r="A3"/>
       <c r="B3"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="125"/>
-      <c r="M3" s="125"/>
-      <c r="N3" s="125"/>
-      <c r="O3" s="125"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="125"/>
-      <c r="S3" s="125"/>
-      <c r="T3" s="125"/>
-      <c r="U3" s="125"/>
-      <c r="V3" s="125"/>
-      <c r="W3" s="125"/>
-      <c r="X3" s="125"/>
-      <c r="Y3" s="125"/>
-      <c r="Z3" s="125"/>
-      <c r="AA3" s="125"/>
-      <c r="AB3" s="125"/>
-      <c r="AC3" s="125"/>
-      <c r="AD3" s="125"/>
-      <c r="AE3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
+      <c r="T3" s="126"/>
+      <c r="U3" s="126"/>
+      <c r="V3" s="126"/>
+      <c r="W3" s="126"/>
+      <c r="X3" s="126"/>
+      <c r="Y3" s="126"/>
+      <c r="Z3" s="126"/>
+      <c r="AA3" s="126"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="126"/>
+      <c r="AD3" s="126"/>
+      <c r="AE3" s="126"/>
       <c r="AF3" s="37"/>
     </row>
     <row r="4" spans="1:47">
       <c r="A4"/>
       <c r="B4"/>
-      <c r="C4" s="126" t="s">
+      <c r="C4" s="127" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="127"/>
+      <c r="I4" s="127"/>
+      <c r="J4" s="127"/>
+      <c r="K4" s="127"/>
+      <c r="L4" s="127"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="127"/>
+      <c r="T4" s="127"/>
+      <c r="U4" s="127"/>
+      <c r="V4" s="127"/>
+      <c r="W4" s="127"/>
+      <c r="X4" s="127"/>
+      <c r="Y4" s="127"/>
+      <c r="Z4" s="127"/>
+      <c r="AA4" s="127"/>
+      <c r="AB4" s="127"/>
+      <c r="AC4" s="127"/>
       <c r="AD4" s="84"/>
       <c r="AE4" s="84"/>
       <c r="AF4" s="84"/>
@@ -53762,12 +53762,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
       <c r="E1" s="35"/>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
@@ -53843,34 +53843,34 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127" t="s">
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128" t="s">
         <v>143</v>
       </c>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127" t="s">
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="127"/>
-      <c r="T1" s="127"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -54002,7 +54002,7 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -54804,7 +54804,7 @@
         <f>Flows!A19</f>
         <v>B18</v>
       </c>
-      <c r="B19" s="128">
+      <c r="B19" s="91">
         <f>B20+B22</f>
         <v>33662.827999999994</v>
       </c>
@@ -55003,7 +55003,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -55120,8 +55120,8 @@
   <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -55160,7 +55160,7 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
